--- a/Vet.xlsx
+++ b/Vet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolina\Documents\Mis Documentos\Freelance\Volunteering\Vet_mexicali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609E263-25F3-45BB-B62E-F10BFE12C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0191FF8-8A6C-4F23-B49F-CDC2C6461A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{78DD29C3-B323-4F21-9C68-761E372E6569}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Servicio a domicilio</t>
   </si>
   <si>
-    <t>Calzada Hector teran teran No 917 colonia televisora , Mexicali, Mexico</t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
@@ -73,19 +70,28 @@
   </si>
   <si>
     <t>Dummie 2</t>
+  </si>
+  <si>
+    <t>917 Calzada Héctor Terán Terán, Mexicali, Municipio de Mexicali, Baja California, México</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,8 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +436,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,13 +455,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -469,14 +478,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6865568200</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2">
         <v>32.6107311996346</v>
       </c>
@@ -484,21 +490,21 @@
         <v>-115.4764407</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>32.615358254841702</v>
@@ -507,27 +513,30 @@
         <v>-115.466956409598</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
